--- a/Team-Data/2007-08/3-6-2007-08.xlsx
+++ b/Team-Data/2007-08/3-6-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>-2.7</v>
       </c>
       <c r="AD2" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AE2" t="n">
         <v>20</v>
@@ -801,7 +868,7 @@
         <v>26</v>
       </c>
       <c r="AW2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX2" t="n">
         <v>3</v>
@@ -816,7 +883,7 @@
         <v>9</v>
       </c>
       <c r="BB2" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BC2" t="n">
         <v>21</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-6-2007-08</t>
+          <t>2008-03-06</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AD3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -953,7 +1020,7 @@
         <v>9</v>
       </c>
       <c r="AM3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN3" t="n">
         <v>3</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-6-2007-08</t>
+          <t>2008-03-06</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-5</v>
       </c>
       <c r="AD4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE4" t="n">
         <v>24</v>
@@ -1123,7 +1190,7 @@
         <v>2</v>
       </c>
       <c r="AI4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ4" t="n">
         <v>18</v>
@@ -1168,7 +1235,7 @@
         <v>14</v>
       </c>
       <c r="AX4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY4" t="n">
         <v>30</v>
@@ -1180,7 +1247,7 @@
         <v>15</v>
       </c>
       <c r="BB4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC4" t="n">
         <v>23</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-6-2007-08</t>
+          <t>2008-03-06</t>
         </is>
       </c>
     </row>
@@ -1212,25 +1279,25 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" t="n">
         <v>36</v>
       </c>
       <c r="G5" t="n">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="H5" t="n">
         <v>48.4</v>
       </c>
       <c r="I5" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="J5" t="n">
-        <v>84.3</v>
+        <v>84.2</v>
       </c>
       <c r="K5" t="n">
         <v>0.429</v>
@@ -1242,58 +1309,58 @@
         <v>15.8</v>
       </c>
       <c r="N5" t="n">
-        <v>0.35</v>
+        <v>0.349</v>
       </c>
       <c r="O5" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="P5" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.741</v>
+        <v>0.743</v>
       </c>
       <c r="R5" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="S5" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="T5" t="n">
-        <v>44</v>
+        <v>43.8</v>
       </c>
       <c r="U5" t="n">
         <v>21.7</v>
       </c>
       <c r="V5" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W5" t="n">
         <v>7.6</v>
       </c>
       <c r="X5" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Z5" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="AA5" t="n">
         <v>21.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>96.09999999999999</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.3</v>
+        <v>-2.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="AE5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF5" t="n">
         <v>21</v>
@@ -1302,7 +1369,7 @@
         <v>21</v>
       </c>
       <c r="AH5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI5" t="n">
         <v>20</v>
@@ -1314,7 +1381,7 @@
         <v>30</v>
       </c>
       <c r="AL5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM5" t="n">
         <v>24</v>
@@ -1329,7 +1396,7 @@
         <v>19</v>
       </c>
       <c r="AQ5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR5" t="n">
         <v>1</v>
@@ -1338,16 +1405,16 @@
         <v>17</v>
       </c>
       <c r="AT5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU5" t="n">
         <v>12</v>
       </c>
       <c r="AV5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX5" t="n">
         <v>8</v>
@@ -1356,16 +1423,16 @@
         <v>28</v>
       </c>
       <c r="AZ5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA5" t="n">
         <v>14</v>
       </c>
       <c r="BB5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC5" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-6-2007-08</t>
+          <t>2008-03-06</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E6" t="n">
         <v>35</v>
       </c>
       <c r="F6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.574</v>
       </c>
       <c r="H6" t="n">
         <v>48.6</v>
@@ -1415,34 +1482,34 @@
         <v>82</v>
       </c>
       <c r="K6" t="n">
-        <v>0.441</v>
+        <v>0.442</v>
       </c>
       <c r="L6" t="n">
         <v>7</v>
       </c>
       <c r="M6" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="N6" t="n">
-        <v>0.366</v>
+        <v>0.365</v>
       </c>
       <c r="O6" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="P6" t="n">
         <v>25</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.72</v>
+        <v>0.719</v>
       </c>
       <c r="R6" t="n">
         <v>12.9</v>
       </c>
       <c r="S6" t="n">
-        <v>31.1</v>
+        <v>31</v>
       </c>
       <c r="T6" t="n">
-        <v>44</v>
+        <v>43.9</v>
       </c>
       <c r="U6" t="n">
         <v>19.7</v>
@@ -1454,13 +1521,13 @@
         <v>7.5</v>
       </c>
       <c r="X6" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y6" t="n">
         <v>4.6</v>
       </c>
       <c r="Z6" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="AA6" t="n">
         <v>20.1</v>
@@ -1469,10 +1536,10 @@
         <v>97.40000000000001</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.5</v>
+        <v>-0.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
@@ -1484,7 +1551,7 @@
         <v>13</v>
       </c>
       <c r="AH6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI6" t="n">
         <v>19</v>
@@ -1493,13 +1560,13 @@
         <v>11</v>
       </c>
       <c r="AK6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL6" t="n">
         <v>12</v>
       </c>
       <c r="AM6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN6" t="n">
         <v>12</v>
@@ -1526,28 +1593,28 @@
         <v>25</v>
       </c>
       <c r="AV6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AW6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX6" t="n">
         <v>15</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>12</v>
       </c>
       <c r="AY6" t="n">
         <v>13</v>
       </c>
       <c r="AZ6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB6" t="n">
         <v>16</v>
       </c>
       <c r="BC6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-6-2007-08</t>
+          <t>2008-03-06</t>
         </is>
       </c>
     </row>
@@ -1576,25 +1643,25 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E7" t="n">
         <v>39</v>
       </c>
       <c r="F7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G7" t="n">
-        <v>0.629</v>
+        <v>0.639</v>
       </c>
       <c r="H7" t="n">
         <v>48.2</v>
       </c>
       <c r="I7" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="J7" t="n">
-        <v>79.09999999999999</v>
+        <v>79</v>
       </c>
       <c r="K7" t="n">
         <v>0.461</v>
@@ -1606,16 +1673,16 @@
         <v>16.9</v>
       </c>
       <c r="N7" t="n">
-        <v>0.348</v>
+        <v>0.346</v>
       </c>
       <c r="O7" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="P7" t="n">
         <v>25.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.8169999999999999</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="R7" t="n">
         <v>11</v>
@@ -1624,7 +1691,7 @@
         <v>31.8</v>
       </c>
       <c r="T7" t="n">
-        <v>42.7</v>
+        <v>42.8</v>
       </c>
       <c r="U7" t="n">
         <v>20.1</v>
@@ -1645,28 +1712,28 @@
         <v>21.7</v>
       </c>
       <c r="AA7" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AB7" t="n">
         <v>99.59999999999999</v>
       </c>
       <c r="AC7" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="AD7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE7" t="n">
         <v>10</v>
       </c>
       <c r="AF7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG7" t="n">
         <v>9</v>
       </c>
-      <c r="AG7" t="n">
-        <v>10</v>
-      </c>
       <c r="AH7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI7" t="n">
         <v>17</v>
@@ -1690,7 +1757,7 @@
         <v>8</v>
       </c>
       <c r="AP7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ7" t="n">
         <v>1</v>
@@ -1708,7 +1775,7 @@
         <v>24</v>
       </c>
       <c r="AV7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW7" t="n">
         <v>29</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-6-2007-08</t>
+          <t>2008-03-06</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>2.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AE8" t="n">
         <v>12</v>
@@ -1854,7 +1921,7 @@
         <v>5</v>
       </c>
       <c r="AJ8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK8" t="n">
         <v>11</v>
@@ -1866,7 +1933,7 @@
         <v>13</v>
       </c>
       <c r="AN8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1878,7 +1945,7 @@
         <v>17</v>
       </c>
       <c r="AR8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AS8" t="n">
         <v>3</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-6-2007-08</t>
+          <t>2008-03-06</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>7.7</v>
       </c>
       <c r="AD9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE9" t="n">
         <v>2</v>
@@ -2069,7 +2136,7 @@
         <v>20</v>
       </c>
       <c r="AU9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV9" t="n">
         <v>1</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-6-2007-08</t>
+          <t>2008-03-06</t>
         </is>
       </c>
     </row>
@@ -2200,13 +2267,13 @@
         <v>2.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AE10" t="n">
         <v>11</v>
       </c>
       <c r="AF10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG10" t="n">
         <v>11</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-6-2007-08</t>
+          <t>2008-03-06</t>
         </is>
       </c>
     </row>
@@ -2304,37 +2371,37 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E11" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F11" t="n">
         <v>20</v>
       </c>
       <c r="G11" t="n">
-        <v>0.672</v>
+        <v>0.667</v>
       </c>
       <c r="H11" t="n">
         <v>48.2</v>
       </c>
       <c r="I11" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J11" t="n">
         <v>81.5</v>
       </c>
       <c r="K11" t="n">
-        <v>0.454</v>
+        <v>0.453</v>
       </c>
       <c r="L11" t="n">
         <v>7.1</v>
       </c>
       <c r="M11" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="N11" t="n">
-        <v>0.345</v>
+        <v>0.344</v>
       </c>
       <c r="O11" t="n">
         <v>16.2</v>
@@ -2346,28 +2413,28 @@
         <v>0.727</v>
       </c>
       <c r="R11" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="S11" t="n">
         <v>32.5</v>
       </c>
       <c r="T11" t="n">
-        <v>44.5</v>
+        <v>44.6</v>
       </c>
       <c r="U11" t="n">
         <v>22.2</v>
       </c>
       <c r="V11" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W11" t="n">
         <v>7.4</v>
       </c>
       <c r="X11" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Z11" t="n">
         <v>19.6</v>
@@ -2376,16 +2443,16 @@
         <v>19.8</v>
       </c>
       <c r="AB11" t="n">
-        <v>97.3</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="AC11" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="AD11" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE11" t="n">
         <v>6</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>5</v>
       </c>
       <c r="AF11" t="n">
         <v>6</v>
@@ -2403,7 +2470,7 @@
         <v>12</v>
       </c>
       <c r="AK11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL11" t="n">
         <v>11</v>
@@ -2412,19 +2479,19 @@
         <v>7</v>
       </c>
       <c r="AN11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO11" t="n">
         <v>28</v>
       </c>
       <c r="AP11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AQ11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS11" t="n">
         <v>5</v>
@@ -2436,7 +2503,7 @@
         <v>10</v>
       </c>
       <c r="AV11" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AW11" t="n">
         <v>17</v>
@@ -2445,16 +2512,16 @@
         <v>4</v>
       </c>
       <c r="AY11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA11" t="n">
         <v>27</v>
       </c>
       <c r="BB11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BC11" t="n">
         <v>7</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-6-2007-08</t>
+          <t>2008-03-06</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E12" t="n">
         <v>24</v>
       </c>
       <c r="F12" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G12" t="n">
-        <v>0.387</v>
+        <v>0.393</v>
       </c>
       <c r="H12" t="n">
         <v>48.2</v>
@@ -2504,19 +2571,19 @@
         <v>37.6</v>
       </c>
       <c r="J12" t="n">
-        <v>85.40000000000001</v>
+        <v>85.5</v>
       </c>
       <c r="K12" t="n">
-        <v>0.44</v>
+        <v>0.439</v>
       </c>
       <c r="L12" t="n">
         <v>9</v>
       </c>
       <c r="M12" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="N12" t="n">
-        <v>0.367</v>
+        <v>0.369</v>
       </c>
       <c r="O12" t="n">
         <v>18.9</v>
@@ -2525,49 +2592,49 @@
         <v>24.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.77</v>
+        <v>0.772</v>
       </c>
       <c r="R12" t="n">
         <v>11.3</v>
       </c>
       <c r="S12" t="n">
-        <v>32.2</v>
+        <v>32.3</v>
       </c>
       <c r="T12" t="n">
-        <v>43.5</v>
+        <v>43.6</v>
       </c>
       <c r="U12" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="V12" t="n">
         <v>15.5</v>
       </c>
       <c r="W12" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="X12" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Z12" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="AA12" t="n">
         <v>21.8</v>
       </c>
       <c r="AB12" t="n">
-        <v>103</v>
+        <v>103.1</v>
       </c>
       <c r="AC12" t="n">
-        <v>-2.5</v>
+        <v>-2.3</v>
       </c>
       <c r="AD12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF12" t="n">
         <v>22</v>
@@ -2576,13 +2643,13 @@
         <v>22</v>
       </c>
       <c r="AH12" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AI12" t="n">
         <v>9</v>
       </c>
       <c r="AJ12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK12" t="n">
         <v>27</v>
@@ -2594,7 +2661,7 @@
         <v>3</v>
       </c>
       <c r="AN12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO12" t="n">
         <v>14</v>
@@ -2609,22 +2676,22 @@
         <v>18</v>
       </c>
       <c r="AS12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT12" t="n">
         <v>7</v>
       </c>
       <c r="AU12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV12" t="n">
         <v>27</v>
       </c>
       <c r="AW12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AX12" t="n">
         <v>11</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>10</v>
       </c>
       <c r="AY12" t="n">
         <v>22</v>
@@ -2639,7 +2706,7 @@
         <v>7</v>
       </c>
       <c r="BC12" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-6-2007-08</t>
+          <t>2008-03-06</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-5.3</v>
       </c>
       <c r="AD13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE13" t="n">
         <v>25</v>
@@ -2800,7 +2867,7 @@
         <v>15</v>
       </c>
       <c r="AV13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW13" t="n">
         <v>19</v>
@@ -2812,7 +2879,7 @@
         <v>21</v>
       </c>
       <c r="AZ13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-6-2007-08</t>
+          <t>2008-03-06</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>7.2</v>
       </c>
       <c r="AD14" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE14" t="n">
         <v>3</v>
@@ -2940,7 +3007,7 @@
         <v>4</v>
       </c>
       <c r="AH14" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI14" t="n">
         <v>4</v>
@@ -2958,7 +3025,7 @@
         <v>9</v>
       </c>
       <c r="AN14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO14" t="n">
         <v>3</v>
@@ -2982,7 +3049,7 @@
         <v>4</v>
       </c>
       <c r="AV14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW14" t="n">
         <v>6</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-6-2007-08</t>
+          <t>2008-03-06</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-6.1</v>
       </c>
       <c r="AD15" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE15" t="n">
         <v>28</v>
@@ -3131,7 +3198,7 @@
         <v>13</v>
       </c>
       <c r="AK15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL15" t="n">
         <v>7</v>
@@ -3170,7 +3237,7 @@
         <v>27</v>
       </c>
       <c r="AX15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY15" t="n">
         <v>15</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-6-2007-08</t>
+          <t>2008-03-06</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>-7.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE16" t="n">
         <v>30</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-6-2007-08</t>
+          <t>2008-03-06</t>
         </is>
       </c>
     </row>
@@ -3474,13 +3541,13 @@
         <v>-6.3</v>
       </c>
       <c r="AD17" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE17" t="n">
         <v>23</v>
       </c>
       <c r="AF17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG17" t="n">
         <v>23</v>
@@ -3498,7 +3565,7 @@
         <v>19</v>
       </c>
       <c r="AL17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM17" t="n">
         <v>22</v>
@@ -3513,7 +3580,7 @@
         <v>22</v>
       </c>
       <c r="AQ17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR17" t="n">
         <v>6</v>
@@ -3546,7 +3613,7 @@
         <v>19</v>
       </c>
       <c r="BB17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BC17" t="n">
         <v>26</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-6-2007-08</t>
+          <t>2008-03-06</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-7.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AE18" t="n">
         <v>29</v>
@@ -3713,7 +3780,7 @@
         <v>24</v>
       </c>
       <c r="AW18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX18" t="n">
         <v>29</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-6-2007-08</t>
+          <t>2008-03-06</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-4.9</v>
       </c>
       <c r="AD19" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE19" t="n">
         <v>19</v>
@@ -3850,7 +3917,7 @@
         <v>19</v>
       </c>
       <c r="AH19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI19" t="n">
         <v>30</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-6-2007-08</t>
+          <t>2008-03-06</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>5.2</v>
       </c>
       <c r="AD20" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AE20" t="n">
         <v>5</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-6-2007-08</t>
+          <t>2008-03-06</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-6.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE21" t="n">
         <v>26</v>
@@ -4214,7 +4281,7 @@
         <v>26</v>
       </c>
       <c r="AH21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI21" t="n">
         <v>28</v>
@@ -4268,7 +4335,7 @@
         <v>23</v>
       </c>
       <c r="AZ21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA21" t="n">
         <v>17</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-6-2007-08</t>
+          <t>2008-03-06</t>
         </is>
       </c>
     </row>
@@ -4387,13 +4454,13 @@
         <v>1</v>
       </c>
       <c r="AE22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH22" t="n">
         <v>18</v>
@@ -4423,7 +4490,7 @@
         <v>2</v>
       </c>
       <c r="AQ22" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR22" t="n">
         <v>27</v>
@@ -4438,7 +4505,7 @@
         <v>23</v>
       </c>
       <c r="AV22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW22" t="n">
         <v>26</v>
@@ -4447,7 +4514,7 @@
         <v>24</v>
       </c>
       <c r="AY22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ22" t="n">
         <v>14</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-6-2007-08</t>
+          <t>2008-03-06</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE23" t="n">
         <v>17</v>
@@ -4602,7 +4669,7 @@
         <v>22</v>
       </c>
       <c r="AP23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ23" t="n">
         <v>30</v>
@@ -4626,7 +4693,7 @@
         <v>5</v>
       </c>
       <c r="AX23" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY23" t="n">
         <v>16</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-6-2007-08</t>
+          <t>2008-03-06</t>
         </is>
       </c>
     </row>
@@ -4748,10 +4815,10 @@
         <v>4.3</v>
       </c>
       <c r="AD24" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE24" t="n">
         <v>6</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>7</v>
       </c>
       <c r="AF24" t="n">
         <v>7</v>
@@ -4802,7 +4869,7 @@
         <v>1</v>
       </c>
       <c r="AV24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AW24" t="n">
         <v>20</v>
@@ -4814,7 +4881,7 @@
         <v>2</v>
       </c>
       <c r="AZ24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA24" t="n">
         <v>21</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-6-2007-08</t>
+          <t>2008-03-06</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>-0.9</v>
       </c>
       <c r="AD25" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE25" t="n">
         <v>15</v>
@@ -4963,7 +5030,7 @@
         <v>9</v>
       </c>
       <c r="AO25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP25" t="n">
         <v>23</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-6-2007-08</t>
+          <t>2008-03-06</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>-2.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE26" t="n">
         <v>18</v>
@@ -5124,7 +5191,7 @@
         <v>18</v>
       </c>
       <c r="AH26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI26" t="n">
         <v>14</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-6-2007-08</t>
+          <t>2008-03-06</t>
         </is>
       </c>
     </row>
@@ -5216,61 +5283,61 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E27" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F27" t="n">
         <v>17</v>
       </c>
       <c r="G27" t="n">
-        <v>0.717</v>
+        <v>0.712</v>
       </c>
       <c r="H27" t="n">
         <v>48.2</v>
       </c>
       <c r="I27" t="n">
-        <v>35.7</v>
+        <v>35.6</v>
       </c>
       <c r="J27" t="n">
         <v>78.3</v>
       </c>
       <c r="K27" t="n">
-        <v>0.456</v>
+        <v>0.455</v>
       </c>
       <c r="L27" t="n">
         <v>7.8</v>
       </c>
       <c r="M27" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="N27" t="n">
         <v>0.377</v>
       </c>
       <c r="O27" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="P27" t="n">
-        <v>22.3</v>
+        <v>22.1</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.76</v>
+        <v>0.759</v>
       </c>
       <c r="R27" t="n">
         <v>9.9</v>
       </c>
       <c r="S27" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="T27" t="n">
-        <v>41.8</v>
+        <v>41.7</v>
       </c>
       <c r="U27" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="V27" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="W27" t="n">
         <v>6.6</v>
@@ -5279,25 +5346,25 @@
         <v>4</v>
       </c>
       <c r="Y27" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z27" t="n">
         <v>18.8</v>
       </c>
       <c r="AA27" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AB27" t="n">
-        <v>96.09999999999999</v>
+        <v>95.8</v>
       </c>
       <c r="AC27" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="AE27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF27" t="n">
         <v>2</v>
@@ -5306,10 +5373,10 @@
         <v>3</v>
       </c>
       <c r="AH27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI27" t="n">
         <v>24</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>23</v>
       </c>
       <c r="AJ27" t="n">
         <v>27</v>
@@ -5330,7 +5397,7 @@
         <v>26</v>
       </c>
       <c r="AP27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ27" t="n">
         <v>15</v>
@@ -5348,7 +5415,7 @@
         <v>16</v>
       </c>
       <c r="AV27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW27" t="n">
         <v>22</v>
@@ -5363,10 +5430,10 @@
         <v>1</v>
       </c>
       <c r="BA27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB27" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BC27" t="n">
         <v>5</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-6-2007-08</t>
+          <t>2008-03-06</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>-7.3</v>
       </c>
       <c r="AD28" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE28" t="n">
         <v>27</v>
@@ -5497,7 +5564,7 @@
         <v>4</v>
       </c>
       <c r="AK28" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL28" t="n">
         <v>29</v>
@@ -5548,7 +5615,7 @@
         <v>26</v>
       </c>
       <c r="BB28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC28" t="n">
         <v>28</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-6-2007-08</t>
+          <t>2008-03-06</t>
         </is>
       </c>
     </row>
@@ -5658,13 +5725,13 @@
         <v>4.1</v>
       </c>
       <c r="AD29" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AE29" t="n">
         <v>14</v>
       </c>
       <c r="AF29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG29" t="n">
         <v>14</v>
@@ -5718,7 +5785,7 @@
         <v>21</v>
       </c>
       <c r="AX29" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AY29" t="n">
         <v>5</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-6-2007-08</t>
+          <t>2008-03-06</t>
         </is>
       </c>
     </row>
@@ -5843,7 +5910,7 @@
         <v>2</v>
       </c>
       <c r="AE30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF30" t="n">
         <v>8</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-6-2007-08</t>
+          <t>2008-03-06</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-0.4</v>
       </c>
       <c r="AD31" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AE31" t="n">
         <v>16</v>
@@ -6037,7 +6104,7 @@
         <v>4</v>
       </c>
       <c r="AI31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ31" t="n">
         <v>10</v>
@@ -6082,7 +6149,7 @@
         <v>7</v>
       </c>
       <c r="AX31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY31" t="n">
         <v>8</v>
@@ -6091,13 +6158,13 @@
         <v>3</v>
       </c>
       <c r="BA31" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BB31" t="n">
         <v>15</v>
       </c>
       <c r="BC31" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-6-2007-08</t>
+          <t>2008-03-06</t>
         </is>
       </c>
     </row>
